--- a/GRBANABUIU_VAZÕES.xlsx
+++ b/GRBANABUIU_VAZÕES.xlsx
@@ -430,8 +430,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A388" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B397" activeCellId="0" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/GRBANABUIU_VAZÕES.xlsx
+++ b/GRBANABUIU_VAZÕES.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Vazao_operada" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Vazao_operada!$A$1:$F$119</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Vazao_operada!$A$1:$F$98</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="16">
   <si>
     <t xml:space="preserve">Reservatório Monitorado</t>
   </si>
@@ -430,8 +430,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45:I46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>45616</v>
+        <v>45630</v>
       </c>
       <c r="C16" s="8" t="n">
-        <v>4743</v>
+        <v>3768</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -697,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>45617</v>
+        <v>45638</v>
       </c>
       <c r="C17" s="8" t="n">
-        <v>4743</v>
+        <v>2755</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -712,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>45618</v>
+        <v>45674</v>
       </c>
       <c r="C18" s="8" t="n">
-        <v>4743</v>
+        <v>1976</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -727,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="7" t="n">
-        <v>45619</v>
+        <v>45681</v>
       </c>
       <c r="C19" s="8" t="n">
-        <v>4743</v>
+        <v>763</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -742,10 +742,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>45620</v>
+        <v>45693</v>
       </c>
       <c r="C20" s="8" t="n">
-        <v>4743</v>
+        <v>573</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -757,10 +757,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>45621</v>
+        <v>45700</v>
       </c>
       <c r="C21" s="8" t="n">
-        <v>4743</v>
+        <v>289</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -772,10 +772,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>45622</v>
+        <v>45828</v>
       </c>
       <c r="C22" s="8" t="n">
-        <v>4743</v>
+        <v>1165</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -787,10 +787,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>45623</v>
+        <v>45832</v>
       </c>
       <c r="C23" s="8" t="n">
-        <v>4743</v>
+        <v>2143</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -802,14 +802,14 @@
         <v>7</v>
       </c>
       <c r="B24" s="7" t="n">
-        <v>45624</v>
+        <v>45848</v>
       </c>
       <c r="C24" s="8" t="n">
-        <v>4743</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+        <v>3037</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -817,337 +817,370 @@
         <v>7</v>
       </c>
       <c r="B25" s="7" t="n">
-        <v>45625</v>
+        <v>45850</v>
       </c>
       <c r="C25" s="8" t="n">
-        <v>4743</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+        <v>3037</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B26" s="7" t="n">
-        <v>45626</v>
-      </c>
-      <c r="C26" s="8" t="n">
-        <v>4743</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+        <v>45293</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" s="7" t="n">
-        <v>45627</v>
-      </c>
-      <c r="C27" s="8" t="n">
-        <v>4743</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
+        <v>45323</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B28" s="7" t="n">
-        <v>45628</v>
-      </c>
-      <c r="C28" s="8" t="n">
-        <v>4743</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+        <v>45352</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>45629</v>
-      </c>
-      <c r="C29" s="8" t="n">
-        <v>4743</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+        <v>45383</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" s="7" t="n">
-        <v>45630</v>
-      </c>
-      <c r="C30" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+        <v>45414</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B31" s="7" t="n">
-        <v>45631</v>
-      </c>
-      <c r="C31" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
+        <v>45446</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B32" s="7" t="n">
-        <v>45632</v>
-      </c>
-      <c r="C32" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+        <v>45474</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33" s="7" t="n">
-        <v>45633</v>
-      </c>
-      <c r="C33" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+        <v>45475</v>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>205</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>45634</v>
-      </c>
-      <c r="C34" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+        <v>45503</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>362</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" s="7" t="n">
-        <v>45635</v>
-      </c>
-      <c r="C35" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
+        <v>45505</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>362</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B36" s="7" t="n">
-        <v>45636</v>
-      </c>
-      <c r="C36" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+        <v>45523</v>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>220</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B37" s="7" t="n">
-        <v>45637</v>
-      </c>
-      <c r="C37" s="8" t="n">
-        <v>3768</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+        <v>45538</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>374</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B38" s="7" t="n">
-        <v>45638</v>
-      </c>
-      <c r="C38" s="8" t="n">
-        <v>2755</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+        <v>45576</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>232</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B39" s="7" t="n">
-        <v>45674</v>
-      </c>
-      <c r="C39" s="8" t="n">
-        <v>1976</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+        <v>45617</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>181</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B40" s="7" t="n">
-        <v>45681</v>
-      </c>
-      <c r="C40" s="8" t="n">
-        <v>763</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
+        <v>45631</v>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B41" s="7" t="n">
-        <v>45693</v>
-      </c>
-      <c r="C41" s="8" t="n">
-        <v>573</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
+        <v>45688</v>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B42" s="7" t="n">
-        <v>45700</v>
-      </c>
-      <c r="C42" s="8" t="n">
-        <v>289</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+        <v>45691</v>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B43" s="7" t="n">
-        <v>45828</v>
-      </c>
-      <c r="C43" s="8" t="n">
-        <v>1165</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
+        <v>45719</v>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B44" s="7" t="n">
-        <v>45832</v>
-      </c>
-      <c r="C44" s="8" t="n">
-        <v>2143</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
+        <v>45293</v>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B45" s="7" t="n">
-        <v>45848</v>
-      </c>
-      <c r="C45" s="8" t="n">
-        <v>3037</v>
+        <v>45323</v>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>20</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B46" s="7" t="n">
-        <v>45850</v>
-      </c>
-      <c r="C46" s="8" t="n">
-        <v>3037</v>
+        <v>45352</v>
+      </c>
+      <c r="C46" s="9" t="n">
+        <v>20</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47" s="7" t="n">
-        <v>45293</v>
+        <v>45383</v>
       </c>
       <c r="C47" s="9" t="n">
         <v>20</v>
@@ -1155,16 +1188,13 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48" s="7" t="n">
-        <v>45323</v>
+        <v>45414</v>
       </c>
       <c r="C48" s="9" t="n">
         <v>20</v>
@@ -1172,16 +1202,13 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" s="7" t="n">
-        <v>45352</v>
+        <v>45446</v>
       </c>
       <c r="C49" s="9" t="n">
         <v>20</v>
@@ -1189,274 +1216,226 @@
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B50" s="7" t="n">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="C50" s="9" t="n">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B51" s="7" t="n">
-        <v>45414</v>
+        <v>45492</v>
       </c>
       <c r="C51" s="9" t="n">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" s="7" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="C52" s="9" t="n">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53" s="7" t="n">
-        <v>45474</v>
+        <v>45523</v>
       </c>
       <c r="C53" s="9" t="n">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54" s="7" t="n">
-        <v>45475</v>
+        <v>45537</v>
       </c>
       <c r="C54" s="9" t="n">
-        <v>205</v>
+        <v>331</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B55" s="7" t="n">
-        <v>45503</v>
+        <v>45553</v>
       </c>
       <c r="C55" s="9" t="n">
-        <v>362</v>
+        <v>250</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B56" s="7" t="n">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="C56" s="9" t="n">
-        <v>362</v>
+        <v>250</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B57" s="7" t="n">
-        <v>45523</v>
+        <v>45597</v>
       </c>
       <c r="C57" s="9" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B58" s="7" t="n">
-        <v>45538</v>
+        <v>45630</v>
       </c>
       <c r="C58" s="9" t="n">
-        <v>374</v>
+        <v>141</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B59" s="7" t="n">
-        <v>45576</v>
+        <v>45685</v>
       </c>
       <c r="C59" s="9" t="n">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B60" s="7" t="n">
-        <v>45617</v>
+        <v>45691</v>
       </c>
       <c r="C60" s="9" t="n">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B61" s="7" t="n">
-        <v>45631</v>
+        <v>45719</v>
       </c>
       <c r="C61" s="9" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62" s="7" t="n">
-        <v>45688</v>
+        <v>45293</v>
       </c>
       <c r="C62" s="9" t="n">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B63" s="7" t="n">
-        <v>45691</v>
+        <v>45322</v>
       </c>
       <c r="C63" s="9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B64" s="7" t="n">
-        <v>45719</v>
+        <v>45323</v>
       </c>
       <c r="C64" s="9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" s="7" t="n">
-        <v>45293</v>
+        <v>45352</v>
       </c>
       <c r="C65" s="9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -1464,13 +1443,13 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" s="7" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="C66" s="9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -1478,13 +1457,13 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="7" t="n">
-        <v>45352</v>
+        <v>45414</v>
       </c>
       <c r="C67" s="9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -1492,13 +1471,13 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68" s="7" t="n">
-        <v>45383</v>
+        <v>45446</v>
       </c>
       <c r="C68" s="9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -1506,13 +1485,13 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" s="7" t="n">
-        <v>45414</v>
+        <v>45474</v>
       </c>
       <c r="C69" s="9" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -1520,13 +1499,13 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70" s="7" t="n">
-        <v>45446</v>
+        <v>45476</v>
       </c>
       <c r="C70" s="9" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -1534,13 +1513,13 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" s="7" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="C71" s="9" t="n">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -1548,13 +1527,13 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72" s="7" t="n">
-        <v>45492</v>
+        <v>45539</v>
       </c>
       <c r="C72" s="9" t="n">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -1562,13 +1541,13 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B73" s="7" t="n">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="C73" s="9" t="n">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -1576,13 +1555,13 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" s="7" t="n">
-        <v>45523</v>
+        <v>45597</v>
       </c>
       <c r="C74" s="9" t="n">
-        <v>331</v>
+        <v>249</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -1590,13 +1569,13 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75" s="7" t="n">
-        <v>45537</v>
+        <v>45638</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -1604,13 +1583,13 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B76" s="7" t="n">
-        <v>45553</v>
+        <v>45659</v>
       </c>
       <c r="C76" s="9" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -1618,13 +1597,13 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" s="7" t="n">
-        <v>45566</v>
+        <v>45691</v>
       </c>
       <c r="C77" s="9" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -1632,13 +1611,13 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B78" s="7" t="n">
-        <v>45597</v>
+        <v>45694</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -1646,13 +1625,13 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B79" s="7" t="n">
-        <v>45630</v>
+        <v>45719</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -1660,13 +1639,13 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B80" s="7" t="n">
-        <v>45685</v>
+        <v>45293</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -1674,13 +1653,13 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B81" s="7" t="n">
-        <v>45691</v>
+        <v>45322</v>
       </c>
       <c r="C81" s="9" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -1688,13 +1667,13 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B82" s="7" t="n">
-        <v>45719</v>
+        <v>45323</v>
       </c>
       <c r="C82" s="9" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -1702,13 +1681,13 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83" s="7" t="n">
-        <v>45293</v>
+        <v>45352</v>
       </c>
       <c r="C83" s="9" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -1716,13 +1695,13 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" s="7" t="n">
-        <v>45322</v>
+        <v>45383</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -1730,13 +1709,13 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="7" t="n">
-        <v>45323</v>
+        <v>45414</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -1744,13 +1723,13 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B86" s="7" t="n">
-        <v>45352</v>
+        <v>45446</v>
       </c>
       <c r="C86" s="9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
@@ -1758,13 +1737,13 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87" s="7" t="n">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="C87" s="9" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
@@ -1772,13 +1751,13 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B88" s="7" t="n">
-        <v>45414</v>
+        <v>45483</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -1786,13 +1765,13 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89" s="7" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
@@ -1800,13 +1779,13 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B90" s="7" t="n">
-        <v>45474</v>
+        <v>45512</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
@@ -1814,13 +1793,13 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" s="7" t="n">
-        <v>45476</v>
+        <v>45527</v>
       </c>
       <c r="C91" s="9" t="n">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -1828,13 +1807,13 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92" s="7" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="C92" s="9" t="n">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -1842,13 +1821,13 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" s="7" t="n">
-        <v>45539</v>
+        <v>45566</v>
       </c>
       <c r="C93" s="9" t="n">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -1856,13 +1835,13 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" s="7" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -1870,13 +1849,13 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95" s="7" t="n">
-        <v>45597</v>
+        <v>45642</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -1884,13 +1863,13 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" s="7" t="n">
-        <v>45638</v>
+        <v>45688</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -1898,13 +1877,13 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" s="7" t="n">
-        <v>45659</v>
+        <v>45691</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -1912,13 +1891,13 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" s="7" t="n">
-        <v>45691</v>
+        <v>45719</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -1926,27 +1905,30 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B99" s="7" t="n">
-        <v>45694</v>
+        <v>45293</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
+      <c r="G99" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B100" s="7" t="n">
-        <v>45719</v>
-      </c>
-      <c r="C100" s="9" t="n">
-        <v>10</v>
+        <v>45507</v>
+      </c>
+      <c r="C100" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -1954,13 +1936,13 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B101" s="7" t="n">
-        <v>45293</v>
-      </c>
-      <c r="C101" s="9" t="n">
-        <v>69</v>
+        <v>45508</v>
+      </c>
+      <c r="C101" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -1968,13 +1950,13 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B102" s="7" t="n">
-        <v>45322</v>
-      </c>
-      <c r="C102" s="9" t="n">
-        <v>0</v>
+        <v>45509</v>
+      </c>
+      <c r="C102" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -1982,13 +1964,13 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B103" s="7" t="n">
-        <v>45323</v>
-      </c>
-      <c r="C103" s="9" t="n">
-        <v>0</v>
+        <v>45510</v>
+      </c>
+      <c r="C103" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
@@ -1996,13 +1978,13 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" s="7" t="n">
-        <v>45352</v>
-      </c>
-      <c r="C104" s="9" t="n">
-        <v>0</v>
+        <v>45511</v>
+      </c>
+      <c r="C104" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -2010,13 +1992,13 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B105" s="7" t="n">
-        <v>45383</v>
-      </c>
-      <c r="C105" s="9" t="n">
-        <v>0</v>
+        <v>45512</v>
+      </c>
+      <c r="C105" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -2024,13 +2006,13 @@
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B106" s="7" t="n">
-        <v>45414</v>
-      </c>
-      <c r="C106" s="9" t="n">
-        <v>0</v>
+        <v>45513</v>
+      </c>
+      <c r="C106" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
@@ -2038,13 +2020,13 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B107" s="7" t="n">
-        <v>45446</v>
-      </c>
-      <c r="C107" s="9" t="n">
-        <v>0</v>
+        <v>45514</v>
+      </c>
+      <c r="C107" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -2052,13 +2034,13 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B108" s="7" t="n">
-        <v>45474</v>
-      </c>
-      <c r="C108" s="9" t="n">
-        <v>69</v>
+        <v>45515</v>
+      </c>
+      <c r="C108" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
@@ -2066,13 +2048,13 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" s="7" t="n">
-        <v>45483</v>
-      </c>
-      <c r="C109" s="9" t="n">
-        <v>58</v>
+        <v>45516</v>
+      </c>
+      <c r="C109" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -2080,13 +2062,13 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" s="7" t="n">
-        <v>45505</v>
-      </c>
-      <c r="C110" s="9" t="n">
-        <v>58</v>
+        <v>45517</v>
+      </c>
+      <c r="C110" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -2094,13 +2076,13 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B111" s="7" t="n">
-        <v>45512</v>
-      </c>
-      <c r="C111" s="9" t="n">
-        <v>150</v>
+        <v>45518</v>
+      </c>
+      <c r="C111" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
@@ -2108,13 +2090,13 @@
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B112" s="7" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C112" s="9" t="n">
-        <v>81</v>
+        <v>45519</v>
+      </c>
+      <c r="C112" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -2122,13 +2104,13 @@
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B113" s="7" t="n">
-        <v>45537</v>
-      </c>
-      <c r="C113" s="9" t="n">
-        <v>81</v>
+        <v>45520</v>
+      </c>
+      <c r="C113" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -2136,13 +2118,13 @@
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B114" s="7" t="n">
-        <v>45566</v>
-      </c>
-      <c r="C114" s="9" t="n">
-        <v>81</v>
+        <v>45521</v>
+      </c>
+      <c r="C114" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
@@ -2150,13 +2132,13 @@
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B115" s="7" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C115" s="9" t="n">
-        <v>81</v>
+        <v>45522</v>
+      </c>
+      <c r="C115" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -2164,13 +2146,13 @@
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" s="7" t="n">
-        <v>45642</v>
-      </c>
-      <c r="C116" s="9" t="n">
-        <v>58</v>
+        <v>45523</v>
+      </c>
+      <c r="C116" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -2178,13 +2160,13 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" s="7" t="n">
-        <v>45688</v>
-      </c>
-      <c r="C117" s="9" t="n">
-        <v>0</v>
+        <v>45524</v>
+      </c>
+      <c r="C117" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -2192,13 +2174,13 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118" s="7" t="n">
-        <v>45691</v>
-      </c>
-      <c r="C118" s="9" t="n">
-        <v>0</v>
+        <v>45525</v>
+      </c>
+      <c r="C118" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -2206,13 +2188,13 @@
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B119" s="7" t="n">
-        <v>45719</v>
-      </c>
-      <c r="C119" s="9" t="n">
-        <v>0</v>
+        <v>45526</v>
+      </c>
+      <c r="C119" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -2223,27 +2205,24 @@
         <v>14</v>
       </c>
       <c r="B120" s="7" t="n">
-        <v>45293</v>
-      </c>
-      <c r="C120" s="9" t="n">
-        <v>109</v>
+        <v>45527</v>
+      </c>
+      <c r="C120" s="8" t="n">
+        <v>212</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="5" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B121" s="7" t="n">
-        <v>45507</v>
+        <v>45528</v>
       </c>
       <c r="C121" s="8" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -2254,10 +2233,10 @@
         <v>14</v>
       </c>
       <c r="B122" s="7" t="n">
-        <v>45508</v>
+        <v>45529</v>
       </c>
       <c r="C122" s="8" t="n">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
@@ -2268,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="B123" s="7" t="n">
-        <v>45509</v>
+        <v>45530</v>
       </c>
       <c r="C123" s="8" t="n">
         <v>212</v>
@@ -2282,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="B124" s="7" t="n">
-        <v>45510</v>
+        <v>45531</v>
       </c>
       <c r="C124" s="8" t="n">
         <v>212</v>
@@ -2296,7 +2275,7 @@
         <v>14</v>
       </c>
       <c r="B125" s="7" t="n">
-        <v>45511</v>
+        <v>45532</v>
       </c>
       <c r="C125" s="8" t="n">
         <v>212</v>
@@ -2310,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="B126" s="7" t="n">
-        <v>45512</v>
+        <v>45533</v>
       </c>
       <c r="C126" s="8" t="n">
         <v>212</v>
@@ -2324,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="B127" s="7" t="n">
-        <v>45513</v>
+        <v>45534</v>
       </c>
       <c r="C127" s="8" t="n">
         <v>212</v>
@@ -2338,7 +2317,7 @@
         <v>14</v>
       </c>
       <c r="B128" s="7" t="n">
-        <v>45514</v>
+        <v>45535</v>
       </c>
       <c r="C128" s="8" t="n">
         <v>212</v>
@@ -2352,7 +2331,7 @@
         <v>14</v>
       </c>
       <c r="B129" s="7" t="n">
-        <v>45515</v>
+        <v>45536</v>
       </c>
       <c r="C129" s="8" t="n">
         <v>212</v>
@@ -2366,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="B130" s="7" t="n">
-        <v>45516</v>
+        <v>45537</v>
       </c>
       <c r="C130" s="8" t="n">
         <v>212</v>
@@ -2380,7 +2359,7 @@
         <v>14</v>
       </c>
       <c r="B131" s="7" t="n">
-        <v>45517</v>
+        <v>45538</v>
       </c>
       <c r="C131" s="8" t="n">
         <v>212</v>
@@ -2394,10 +2373,10 @@
         <v>14</v>
       </c>
       <c r="B132" s="7" t="n">
-        <v>45518</v>
+        <v>45539</v>
       </c>
       <c r="C132" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -2408,10 +2387,10 @@
         <v>14</v>
       </c>
       <c r="B133" s="7" t="n">
-        <v>45519</v>
+        <v>45540</v>
       </c>
       <c r="C133" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -2422,10 +2401,10 @@
         <v>14</v>
       </c>
       <c r="B134" s="7" t="n">
-        <v>45520</v>
+        <v>45541</v>
       </c>
       <c r="C134" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -2436,10 +2415,10 @@
         <v>14</v>
       </c>
       <c r="B135" s="7" t="n">
-        <v>45521</v>
+        <v>45542</v>
       </c>
       <c r="C135" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -2450,10 +2429,10 @@
         <v>14</v>
       </c>
       <c r="B136" s="7" t="n">
-        <v>45522</v>
+        <v>45543</v>
       </c>
       <c r="C136" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -2464,10 +2443,10 @@
         <v>14</v>
       </c>
       <c r="B137" s="7" t="n">
-        <v>45523</v>
+        <v>45544</v>
       </c>
       <c r="C137" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
@@ -2478,10 +2457,10 @@
         <v>14</v>
       </c>
       <c r="B138" s="7" t="n">
-        <v>45524</v>
+        <v>45545</v>
       </c>
       <c r="C138" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -2492,10 +2471,10 @@
         <v>14</v>
       </c>
       <c r="B139" s="7" t="n">
-        <v>45525</v>
+        <v>45546</v>
       </c>
       <c r="C139" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -2506,10 +2485,10 @@
         <v>14</v>
       </c>
       <c r="B140" s="7" t="n">
-        <v>45526</v>
+        <v>45547</v>
       </c>
       <c r="C140" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
@@ -2520,10 +2499,10 @@
         <v>14</v>
       </c>
       <c r="B141" s="7" t="n">
-        <v>45527</v>
+        <v>45548</v>
       </c>
       <c r="C141" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
@@ -2534,10 +2513,10 @@
         <v>14</v>
       </c>
       <c r="B142" s="7" t="n">
-        <v>45528</v>
+        <v>45549</v>
       </c>
       <c r="C142" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
@@ -2548,10 +2527,10 @@
         <v>14</v>
       </c>
       <c r="B143" s="7" t="n">
-        <v>45529</v>
+        <v>45550</v>
       </c>
       <c r="C143" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
@@ -2562,10 +2541,10 @@
         <v>14</v>
       </c>
       <c r="B144" s="7" t="n">
-        <v>45530</v>
+        <v>45551</v>
       </c>
       <c r="C144" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
@@ -2576,10 +2555,10 @@
         <v>14</v>
       </c>
       <c r="B145" s="7" t="n">
-        <v>45531</v>
+        <v>45552</v>
       </c>
       <c r="C145" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
@@ -2590,10 +2569,10 @@
         <v>14</v>
       </c>
       <c r="B146" s="7" t="n">
-        <v>45532</v>
+        <v>45553</v>
       </c>
       <c r="C146" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
@@ -2604,10 +2583,10 @@
         <v>14</v>
       </c>
       <c r="B147" s="7" t="n">
-        <v>45533</v>
+        <v>45554</v>
       </c>
       <c r="C147" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
@@ -2618,10 +2597,10 @@
         <v>14</v>
       </c>
       <c r="B148" s="7" t="n">
-        <v>45534</v>
+        <v>45555</v>
       </c>
       <c r="C148" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
@@ -2632,10 +2611,10 @@
         <v>14</v>
       </c>
       <c r="B149" s="7" t="n">
-        <v>45535</v>
+        <v>45556</v>
       </c>
       <c r="C149" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
@@ -2646,10 +2625,10 @@
         <v>14</v>
       </c>
       <c r="B150" s="7" t="n">
-        <v>45536</v>
+        <v>45557</v>
       </c>
       <c r="C150" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
@@ -2660,10 +2639,10 @@
         <v>14</v>
       </c>
       <c r="B151" s="7" t="n">
-        <v>45537</v>
+        <v>45558</v>
       </c>
       <c r="C151" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -2674,10 +2653,10 @@
         <v>14</v>
       </c>
       <c r="B152" s="7" t="n">
-        <v>45538</v>
+        <v>45559</v>
       </c>
       <c r="C152" s="8" t="n">
-        <v>212</v>
+        <v>879</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
@@ -2688,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B153" s="7" t="n">
-        <v>45539</v>
+        <v>45560</v>
       </c>
       <c r="C153" s="8" t="n">
         <v>879</v>
@@ -2702,7 +2681,7 @@
         <v>14</v>
       </c>
       <c r="B154" s="7" t="n">
-        <v>45540</v>
+        <v>45561</v>
       </c>
       <c r="C154" s="8" t="n">
         <v>879</v>
@@ -2716,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="B155" s="7" t="n">
-        <v>45541</v>
+        <v>45562</v>
       </c>
       <c r="C155" s="8" t="n">
         <v>879</v>
@@ -2730,7 +2709,7 @@
         <v>14</v>
       </c>
       <c r="B156" s="7" t="n">
-        <v>45542</v>
+        <v>45563</v>
       </c>
       <c r="C156" s="8" t="n">
         <v>879</v>
@@ -2744,7 +2723,7 @@
         <v>14</v>
       </c>
       <c r="B157" s="7" t="n">
-        <v>45543</v>
+        <v>45564</v>
       </c>
       <c r="C157" s="8" t="n">
         <v>879</v>
@@ -2758,7 +2737,7 @@
         <v>14</v>
       </c>
       <c r="B158" s="7" t="n">
-        <v>45544</v>
+        <v>45565</v>
       </c>
       <c r="C158" s="8" t="n">
         <v>879</v>
@@ -2772,7 +2751,7 @@
         <v>14</v>
       </c>
       <c r="B159" s="7" t="n">
-        <v>45545</v>
+        <v>45566</v>
       </c>
       <c r="C159" s="8" t="n">
         <v>879</v>
@@ -2786,7 +2765,7 @@
         <v>14</v>
       </c>
       <c r="B160" s="7" t="n">
-        <v>45546</v>
+        <v>45567</v>
       </c>
       <c r="C160" s="8" t="n">
         <v>879</v>
@@ -2800,7 +2779,7 @@
         <v>14</v>
       </c>
       <c r="B161" s="7" t="n">
-        <v>45547</v>
+        <v>45568</v>
       </c>
       <c r="C161" s="8" t="n">
         <v>879</v>
@@ -2814,7 +2793,7 @@
         <v>14</v>
       </c>
       <c r="B162" s="7" t="n">
-        <v>45548</v>
+        <v>45569</v>
       </c>
       <c r="C162" s="8" t="n">
         <v>879</v>
@@ -2828,7 +2807,7 @@
         <v>14</v>
       </c>
       <c r="B163" s="7" t="n">
-        <v>45549</v>
+        <v>45570</v>
       </c>
       <c r="C163" s="8" t="n">
         <v>879</v>
@@ -2842,7 +2821,7 @@
         <v>14</v>
       </c>
       <c r="B164" s="7" t="n">
-        <v>45550</v>
+        <v>45571</v>
       </c>
       <c r="C164" s="8" t="n">
         <v>879</v>
@@ -2856,7 +2835,7 @@
         <v>14</v>
       </c>
       <c r="B165" s="7" t="n">
-        <v>45551</v>
+        <v>45572</v>
       </c>
       <c r="C165" s="8" t="n">
         <v>879</v>
@@ -2870,10 +2849,10 @@
         <v>14</v>
       </c>
       <c r="B166" s="7" t="n">
-        <v>45552</v>
+        <v>45573</v>
       </c>
       <c r="C166" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
@@ -2884,10 +2863,10 @@
         <v>14</v>
       </c>
       <c r="B167" s="7" t="n">
-        <v>45553</v>
+        <v>45574</v>
       </c>
       <c r="C167" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
@@ -2898,10 +2877,10 @@
         <v>14</v>
       </c>
       <c r="B168" s="7" t="n">
-        <v>45554</v>
+        <v>45575</v>
       </c>
       <c r="C168" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
@@ -2912,10 +2891,10 @@
         <v>14</v>
       </c>
       <c r="B169" s="7" t="n">
-        <v>45555</v>
+        <v>45576</v>
       </c>
       <c r="C169" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -2926,10 +2905,10 @@
         <v>14</v>
       </c>
       <c r="B170" s="7" t="n">
-        <v>45556</v>
+        <v>45577</v>
       </c>
       <c r="C170" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
@@ -2940,10 +2919,10 @@
         <v>14</v>
       </c>
       <c r="B171" s="7" t="n">
-        <v>45557</v>
+        <v>45578</v>
       </c>
       <c r="C171" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -2954,10 +2933,10 @@
         <v>14</v>
       </c>
       <c r="B172" s="7" t="n">
-        <v>45558</v>
+        <v>45579</v>
       </c>
       <c r="C172" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -2968,10 +2947,10 @@
         <v>14</v>
       </c>
       <c r="B173" s="7" t="n">
-        <v>45559</v>
+        <v>45580</v>
       </c>
       <c r="C173" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -2982,10 +2961,10 @@
         <v>14</v>
       </c>
       <c r="B174" s="7" t="n">
-        <v>45560</v>
+        <v>45581</v>
       </c>
       <c r="C174" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -2996,10 +2975,10 @@
         <v>14</v>
       </c>
       <c r="B175" s="7" t="n">
-        <v>45561</v>
+        <v>45582</v>
       </c>
       <c r="C175" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -3010,10 +2989,10 @@
         <v>14</v>
       </c>
       <c r="B176" s="7" t="n">
-        <v>45562</v>
+        <v>45583</v>
       </c>
       <c r="C176" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
@@ -3024,10 +3003,10 @@
         <v>14</v>
       </c>
       <c r="B177" s="7" t="n">
-        <v>45563</v>
+        <v>45584</v>
       </c>
       <c r="C177" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
@@ -3038,10 +3017,10 @@
         <v>14</v>
       </c>
       <c r="B178" s="7" t="n">
-        <v>45564</v>
+        <v>45585</v>
       </c>
       <c r="C178" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
@@ -3052,10 +3031,10 @@
         <v>14</v>
       </c>
       <c r="B179" s="7" t="n">
-        <v>45565</v>
+        <v>45586</v>
       </c>
       <c r="C179" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
@@ -3066,10 +3045,10 @@
         <v>14</v>
       </c>
       <c r="B180" s="7" t="n">
-        <v>45566</v>
+        <v>45587</v>
       </c>
       <c r="C180" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
@@ -3080,10 +3059,10 @@
         <v>14</v>
       </c>
       <c r="B181" s="7" t="n">
-        <v>45567</v>
+        <v>45588</v>
       </c>
       <c r="C181" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -3094,10 +3073,10 @@
         <v>14</v>
       </c>
       <c r="B182" s="7" t="n">
-        <v>45568</v>
+        <v>45589</v>
       </c>
       <c r="C182" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -3108,10 +3087,10 @@
         <v>14</v>
       </c>
       <c r="B183" s="7" t="n">
-        <v>45569</v>
+        <v>45590</v>
       </c>
       <c r="C183" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
@@ -3122,10 +3101,10 @@
         <v>14</v>
       </c>
       <c r="B184" s="7" t="n">
-        <v>45570</v>
+        <v>45591</v>
       </c>
       <c r="C184" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -3136,10 +3115,10 @@
         <v>14</v>
       </c>
       <c r="B185" s="7" t="n">
-        <v>45571</v>
+        <v>45592</v>
       </c>
       <c r="C185" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
@@ -3150,10 +3129,10 @@
         <v>14</v>
       </c>
       <c r="B186" s="7" t="n">
-        <v>45572</v>
+        <v>45593</v>
       </c>
       <c r="C186" s="8" t="n">
-        <v>879</v>
+        <v>215</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
@@ -3164,7 +3143,7 @@
         <v>14</v>
       </c>
       <c r="B187" s="7" t="n">
-        <v>45573</v>
+        <v>45594</v>
       </c>
       <c r="C187" s="8" t="n">
         <v>215</v>
@@ -3178,7 +3157,7 @@
         <v>14</v>
       </c>
       <c r="B188" s="7" t="n">
-        <v>45574</v>
+        <v>45595</v>
       </c>
       <c r="C188" s="8" t="n">
         <v>215</v>
@@ -3192,7 +3171,7 @@
         <v>14</v>
       </c>
       <c r="B189" s="7" t="n">
-        <v>45575</v>
+        <v>45596</v>
       </c>
       <c r="C189" s="8" t="n">
         <v>215</v>
@@ -3206,7 +3185,7 @@
         <v>14</v>
       </c>
       <c r="B190" s="7" t="n">
-        <v>45576</v>
+        <v>45597</v>
       </c>
       <c r="C190" s="8" t="n">
         <v>215</v>
@@ -3220,7 +3199,7 @@
         <v>14</v>
       </c>
       <c r="B191" s="7" t="n">
-        <v>45577</v>
+        <v>45598</v>
       </c>
       <c r="C191" s="8" t="n">
         <v>215</v>
@@ -3234,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="B192" s="7" t="n">
-        <v>45578</v>
+        <v>45599</v>
       </c>
       <c r="C192" s="8" t="n">
         <v>215</v>
@@ -3248,7 +3227,7 @@
         <v>14</v>
       </c>
       <c r="B193" s="7" t="n">
-        <v>45579</v>
+        <v>45600</v>
       </c>
       <c r="C193" s="8" t="n">
         <v>215</v>
@@ -3262,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="B194" s="7" t="n">
-        <v>45580</v>
+        <v>45601</v>
       </c>
       <c r="C194" s="8" t="n">
         <v>215</v>
@@ -3276,7 +3255,7 @@
         <v>14</v>
       </c>
       <c r="B195" s="7" t="n">
-        <v>45581</v>
+        <v>45602</v>
       </c>
       <c r="C195" s="8" t="n">
         <v>215</v>
@@ -3290,7 +3269,7 @@
         <v>14</v>
       </c>
       <c r="B196" s="7" t="n">
-        <v>45582</v>
+        <v>45603</v>
       </c>
       <c r="C196" s="8" t="n">
         <v>215</v>
@@ -3304,7 +3283,7 @@
         <v>14</v>
       </c>
       <c r="B197" s="7" t="n">
-        <v>45583</v>
+        <v>45604</v>
       </c>
       <c r="C197" s="8" t="n">
         <v>215</v>
@@ -3318,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="B198" s="7" t="n">
-        <v>45584</v>
+        <v>45605</v>
       </c>
       <c r="C198" s="8" t="n">
         <v>215</v>
@@ -3332,7 +3311,7 @@
         <v>14</v>
       </c>
       <c r="B199" s="7" t="n">
-        <v>45585</v>
+        <v>45606</v>
       </c>
       <c r="C199" s="8" t="n">
         <v>215</v>
@@ -3346,7 +3325,7 @@
         <v>14</v>
       </c>
       <c r="B200" s="7" t="n">
-        <v>45586</v>
+        <v>45607</v>
       </c>
       <c r="C200" s="8" t="n">
         <v>215</v>
@@ -3360,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="B201" s="7" t="n">
-        <v>45587</v>
+        <v>45608</v>
       </c>
       <c r="C201" s="8" t="n">
         <v>215</v>
@@ -3374,7 +3353,7 @@
         <v>14</v>
       </c>
       <c r="B202" s="7" t="n">
-        <v>45588</v>
+        <v>45609</v>
       </c>
       <c r="C202" s="8" t="n">
         <v>215</v>
@@ -3388,7 +3367,7 @@
         <v>14</v>
       </c>
       <c r="B203" s="7" t="n">
-        <v>45589</v>
+        <v>45610</v>
       </c>
       <c r="C203" s="8" t="n">
         <v>215</v>
@@ -3402,7 +3381,7 @@
         <v>14</v>
       </c>
       <c r="B204" s="7" t="n">
-        <v>45590</v>
+        <v>45611</v>
       </c>
       <c r="C204" s="8" t="n">
         <v>215</v>
@@ -3416,7 +3395,7 @@
         <v>14</v>
       </c>
       <c r="B205" s="7" t="n">
-        <v>45591</v>
+        <v>45612</v>
       </c>
       <c r="C205" s="8" t="n">
         <v>215</v>
@@ -3430,7 +3409,7 @@
         <v>14</v>
       </c>
       <c r="B206" s="7" t="n">
-        <v>45592</v>
+        <v>45613</v>
       </c>
       <c r="C206" s="8" t="n">
         <v>215</v>
@@ -3444,7 +3423,7 @@
         <v>14</v>
       </c>
       <c r="B207" s="7" t="n">
-        <v>45593</v>
+        <v>45614</v>
       </c>
       <c r="C207" s="8" t="n">
         <v>215</v>
@@ -3458,10 +3437,10 @@
         <v>14</v>
       </c>
       <c r="B208" s="7" t="n">
-        <v>45594</v>
+        <v>45615</v>
       </c>
       <c r="C208" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
@@ -3472,10 +3451,10 @@
         <v>14</v>
       </c>
       <c r="B209" s="7" t="n">
-        <v>45595</v>
+        <v>45616</v>
       </c>
       <c r="C209" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
@@ -3486,10 +3465,10 @@
         <v>14</v>
       </c>
       <c r="B210" s="7" t="n">
-        <v>45596</v>
+        <v>45617</v>
       </c>
       <c r="C210" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
@@ -3500,10 +3479,10 @@
         <v>14</v>
       </c>
       <c r="B211" s="7" t="n">
-        <v>45597</v>
+        <v>45618</v>
       </c>
       <c r="C211" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
@@ -3514,10 +3493,10 @@
         <v>14</v>
       </c>
       <c r="B212" s="7" t="n">
-        <v>45598</v>
+        <v>45619</v>
       </c>
       <c r="C212" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
@@ -3528,10 +3507,10 @@
         <v>14</v>
       </c>
       <c r="B213" s="7" t="n">
-        <v>45599</v>
+        <v>45620</v>
       </c>
       <c r="C213" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
@@ -3542,10 +3521,10 @@
         <v>14</v>
       </c>
       <c r="B214" s="7" t="n">
-        <v>45600</v>
+        <v>45621</v>
       </c>
       <c r="C214" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
@@ -3556,10 +3535,10 @@
         <v>14</v>
       </c>
       <c r="B215" s="7" t="n">
-        <v>45601</v>
+        <v>45622</v>
       </c>
       <c r="C215" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
@@ -3570,10 +3549,10 @@
         <v>14</v>
       </c>
       <c r="B216" s="7" t="n">
-        <v>45602</v>
+        <v>45623</v>
       </c>
       <c r="C216" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
@@ -3584,10 +3563,10 @@
         <v>14</v>
       </c>
       <c r="B217" s="7" t="n">
-        <v>45603</v>
+        <v>45624</v>
       </c>
       <c r="C217" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -3598,10 +3577,10 @@
         <v>14</v>
       </c>
       <c r="B218" s="7" t="n">
-        <v>45604</v>
+        <v>45625</v>
       </c>
       <c r="C218" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
@@ -3612,10 +3591,10 @@
         <v>14</v>
       </c>
       <c r="B219" s="7" t="n">
-        <v>45605</v>
+        <v>45626</v>
       </c>
       <c r="C219" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
@@ -3626,10 +3605,10 @@
         <v>14</v>
       </c>
       <c r="B220" s="7" t="n">
-        <v>45606</v>
+        <v>45627</v>
       </c>
       <c r="C220" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
@@ -3640,10 +3619,10 @@
         <v>14</v>
       </c>
       <c r="B221" s="7" t="n">
-        <v>45607</v>
+        <v>45628</v>
       </c>
       <c r="C221" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
@@ -3654,10 +3633,10 @@
         <v>14</v>
       </c>
       <c r="B222" s="7" t="n">
-        <v>45608</v>
+        <v>45629</v>
       </c>
       <c r="C222" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
@@ -3668,10 +3647,10 @@
         <v>14</v>
       </c>
       <c r="B223" s="7" t="n">
-        <v>45609</v>
+        <v>45630</v>
       </c>
       <c r="C223" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
@@ -3682,10 +3661,10 @@
         <v>14</v>
       </c>
       <c r="B224" s="7" t="n">
-        <v>45610</v>
+        <v>45631</v>
       </c>
       <c r="C224" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
@@ -3696,10 +3675,10 @@
         <v>14</v>
       </c>
       <c r="B225" s="7" t="n">
-        <v>45611</v>
+        <v>45632</v>
       </c>
       <c r="C225" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
@@ -3710,10 +3689,10 @@
         <v>14</v>
       </c>
       <c r="B226" s="7" t="n">
-        <v>45612</v>
+        <v>45633</v>
       </c>
       <c r="C226" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
@@ -3724,10 +3703,10 @@
         <v>14</v>
       </c>
       <c r="B227" s="7" t="n">
-        <v>45613</v>
+        <v>45634</v>
       </c>
       <c r="C227" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
@@ -3738,10 +3717,10 @@
         <v>14</v>
       </c>
       <c r="B228" s="7" t="n">
-        <v>45614</v>
+        <v>45635</v>
       </c>
       <c r="C228" s="8" t="n">
-        <v>215</v>
+        <v>968</v>
       </c>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
@@ -3752,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="B229" s="7" t="n">
-        <v>45615</v>
+        <v>45636</v>
       </c>
       <c r="C229" s="8" t="n">
         <v>968</v>
@@ -3766,10 +3745,10 @@
         <v>14</v>
       </c>
       <c r="B230" s="7" t="n">
-        <v>45616</v>
+        <v>45637</v>
       </c>
       <c r="C230" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -3780,10 +3759,10 @@
         <v>14</v>
       </c>
       <c r="B231" s="7" t="n">
-        <v>45617</v>
+        <v>45638</v>
       </c>
       <c r="C231" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
@@ -3794,10 +3773,10 @@
         <v>14</v>
       </c>
       <c r="B232" s="7" t="n">
-        <v>45618</v>
+        <v>45639</v>
       </c>
       <c r="C232" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
@@ -3808,10 +3787,10 @@
         <v>14</v>
       </c>
       <c r="B233" s="7" t="n">
-        <v>45619</v>
+        <v>45640</v>
       </c>
       <c r="C233" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
@@ -3822,10 +3801,10 @@
         <v>14</v>
       </c>
       <c r="B234" s="7" t="n">
-        <v>45620</v>
+        <v>45641</v>
       </c>
       <c r="C234" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
@@ -3836,10 +3815,10 @@
         <v>14</v>
       </c>
       <c r="B235" s="7" t="n">
-        <v>45621</v>
+        <v>45642</v>
       </c>
       <c r="C235" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
@@ -3850,10 +3829,10 @@
         <v>14</v>
       </c>
       <c r="B236" s="7" t="n">
-        <v>45622</v>
+        <v>45643</v>
       </c>
       <c r="C236" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
@@ -3864,10 +3843,10 @@
         <v>14</v>
       </c>
       <c r="B237" s="7" t="n">
-        <v>45623</v>
+        <v>45644</v>
       </c>
       <c r="C237" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
@@ -3878,10 +3857,10 @@
         <v>14</v>
       </c>
       <c r="B238" s="7" t="n">
-        <v>45624</v>
+        <v>45645</v>
       </c>
       <c r="C238" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
@@ -3892,10 +3871,10 @@
         <v>14</v>
       </c>
       <c r="B239" s="7" t="n">
-        <v>45625</v>
+        <v>45646</v>
       </c>
       <c r="C239" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
@@ -3906,10 +3885,10 @@
         <v>14</v>
       </c>
       <c r="B240" s="7" t="n">
-        <v>45626</v>
+        <v>45647</v>
       </c>
       <c r="C240" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
@@ -3920,10 +3899,10 @@
         <v>14</v>
       </c>
       <c r="B241" s="7" t="n">
-        <v>45627</v>
+        <v>45648</v>
       </c>
       <c r="C241" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
@@ -3934,10 +3913,10 @@
         <v>14</v>
       </c>
       <c r="B242" s="7" t="n">
-        <v>45628</v>
+        <v>45649</v>
       </c>
       <c r="C242" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
@@ -3948,10 +3927,10 @@
         <v>14</v>
       </c>
       <c r="B243" s="7" t="n">
-        <v>45629</v>
+        <v>45650</v>
       </c>
       <c r="C243" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
@@ -3962,10 +3941,10 @@
         <v>14</v>
       </c>
       <c r="B244" s="7" t="n">
-        <v>45630</v>
+        <v>45651</v>
       </c>
       <c r="C244" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
@@ -3976,10 +3955,10 @@
         <v>14</v>
       </c>
       <c r="B245" s="7" t="n">
-        <v>45631</v>
+        <v>45652</v>
       </c>
       <c r="C245" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -3990,10 +3969,10 @@
         <v>14</v>
       </c>
       <c r="B246" s="7" t="n">
-        <v>45632</v>
+        <v>45653</v>
       </c>
       <c r="C246" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
@@ -4004,10 +3983,10 @@
         <v>14</v>
       </c>
       <c r="B247" s="7" t="n">
-        <v>45633</v>
+        <v>45654</v>
       </c>
       <c r="C247" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
@@ -4018,10 +3997,10 @@
         <v>14</v>
       </c>
       <c r="B248" s="7" t="n">
-        <v>45634</v>
+        <v>45655</v>
       </c>
       <c r="C248" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
@@ -4032,10 +4011,10 @@
         <v>14</v>
       </c>
       <c r="B249" s="7" t="n">
-        <v>45635</v>
+        <v>45656</v>
       </c>
       <c r="C249" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
@@ -4046,10 +4025,10 @@
         <v>14</v>
       </c>
       <c r="B250" s="7" t="n">
-        <v>45636</v>
+        <v>45657</v>
       </c>
       <c r="C250" s="8" t="n">
-        <v>968</v>
+        <v>104</v>
       </c>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
@@ -4060,7 +4039,7 @@
         <v>14</v>
       </c>
       <c r="B251" s="7" t="n">
-        <v>45637</v>
+        <v>45658</v>
       </c>
       <c r="C251" s="8" t="n">
         <v>104</v>
@@ -4074,7 +4053,7 @@
         <v>14</v>
       </c>
       <c r="B252" s="7" t="n">
-        <v>45638</v>
+        <v>45659</v>
       </c>
       <c r="C252" s="8" t="n">
         <v>104</v>
@@ -4088,7 +4067,7 @@
         <v>14</v>
       </c>
       <c r="B253" s="7" t="n">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="C253" s="8" t="n">
         <v>104</v>
@@ -4102,7 +4081,7 @@
         <v>14</v>
       </c>
       <c r="B254" s="7" t="n">
-        <v>45640</v>
+        <v>45661</v>
       </c>
       <c r="C254" s="8" t="n">
         <v>104</v>
@@ -4116,7 +4095,7 @@
         <v>14</v>
       </c>
       <c r="B255" s="7" t="n">
-        <v>45641</v>
+        <v>45662</v>
       </c>
       <c r="C255" s="8" t="n">
         <v>104</v>
@@ -4130,7 +4109,7 @@
         <v>14</v>
       </c>
       <c r="B256" s="7" t="n">
-        <v>45642</v>
+        <v>45663</v>
       </c>
       <c r="C256" s="8" t="n">
         <v>104</v>
@@ -4144,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="B257" s="7" t="n">
-        <v>45643</v>
+        <v>45664</v>
       </c>
       <c r="C257" s="8" t="n">
         <v>104</v>
@@ -4158,7 +4137,7 @@
         <v>14</v>
       </c>
       <c r="B258" s="7" t="n">
-        <v>45644</v>
+        <v>45665</v>
       </c>
       <c r="C258" s="8" t="n">
         <v>104</v>
@@ -4172,7 +4151,7 @@
         <v>14</v>
       </c>
       <c r="B259" s="7" t="n">
-        <v>45645</v>
+        <v>45666</v>
       </c>
       <c r="C259" s="8" t="n">
         <v>104</v>
@@ -4186,7 +4165,7 @@
         <v>14</v>
       </c>
       <c r="B260" s="7" t="n">
-        <v>45646</v>
+        <v>45667</v>
       </c>
       <c r="C260" s="8" t="n">
         <v>104</v>
@@ -4200,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="B261" s="7" t="n">
-        <v>45647</v>
+        <v>45668</v>
       </c>
       <c r="C261" s="8" t="n">
         <v>104</v>
@@ -4214,7 +4193,7 @@
         <v>14</v>
       </c>
       <c r="B262" s="7" t="n">
-        <v>45648</v>
+        <v>45669</v>
       </c>
       <c r="C262" s="8" t="n">
         <v>104</v>
@@ -4228,7 +4207,7 @@
         <v>14</v>
       </c>
       <c r="B263" s="7" t="n">
-        <v>45649</v>
+        <v>45670</v>
       </c>
       <c r="C263" s="8" t="n">
         <v>104</v>
@@ -4242,7 +4221,7 @@
         <v>14</v>
       </c>
       <c r="B264" s="7" t="n">
-        <v>45650</v>
+        <v>45671</v>
       </c>
       <c r="C264" s="8" t="n">
         <v>104</v>
@@ -4256,7 +4235,7 @@
         <v>14</v>
       </c>
       <c r="B265" s="7" t="n">
-        <v>45651</v>
+        <v>45672</v>
       </c>
       <c r="C265" s="8" t="n">
         <v>104</v>
@@ -4270,7 +4249,7 @@
         <v>14</v>
       </c>
       <c r="B266" s="7" t="n">
-        <v>45652</v>
+        <v>45673</v>
       </c>
       <c r="C266" s="8" t="n">
         <v>104</v>
@@ -4284,7 +4263,7 @@
         <v>14</v>
       </c>
       <c r="B267" s="7" t="n">
-        <v>45653</v>
+        <v>45674</v>
       </c>
       <c r="C267" s="8" t="n">
         <v>104</v>
@@ -4298,7 +4277,7 @@
         <v>14</v>
       </c>
       <c r="B268" s="7" t="n">
-        <v>45654</v>
+        <v>45675</v>
       </c>
       <c r="C268" s="8" t="n">
         <v>104</v>
@@ -4312,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="B269" s="7" t="n">
-        <v>45655</v>
+        <v>45676</v>
       </c>
       <c r="C269" s="8" t="n">
         <v>104</v>
@@ -4326,7 +4305,7 @@
         <v>14</v>
       </c>
       <c r="B270" s="7" t="n">
-        <v>45656</v>
+        <v>45677</v>
       </c>
       <c r="C270" s="8" t="n">
         <v>104</v>
@@ -4340,7 +4319,7 @@
         <v>14</v>
       </c>
       <c r="B271" s="7" t="n">
-        <v>45657</v>
+        <v>45678</v>
       </c>
       <c r="C271" s="8" t="n">
         <v>104</v>
@@ -4354,7 +4333,7 @@
         <v>14</v>
       </c>
       <c r="B272" s="7" t="n">
-        <v>45658</v>
+        <v>45679</v>
       </c>
       <c r="C272" s="8" t="n">
         <v>104</v>
@@ -4368,7 +4347,7 @@
         <v>14</v>
       </c>
       <c r="B273" s="7" t="n">
-        <v>45659</v>
+        <v>45680</v>
       </c>
       <c r="C273" s="8" t="n">
         <v>104</v>
@@ -4382,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="B274" s="7" t="n">
-        <v>45660</v>
+        <v>45681</v>
       </c>
       <c r="C274" s="8" t="n">
         <v>104</v>
@@ -4396,7 +4375,7 @@
         <v>14</v>
       </c>
       <c r="B275" s="7" t="n">
-        <v>45661</v>
+        <v>45682</v>
       </c>
       <c r="C275" s="8" t="n">
         <v>104</v>
@@ -4410,7 +4389,7 @@
         <v>14</v>
       </c>
       <c r="B276" s="7" t="n">
-        <v>45662</v>
+        <v>45683</v>
       </c>
       <c r="C276" s="8" t="n">
         <v>104</v>
@@ -4424,7 +4403,7 @@
         <v>14</v>
       </c>
       <c r="B277" s="7" t="n">
-        <v>45663</v>
+        <v>45684</v>
       </c>
       <c r="C277" s="8" t="n">
         <v>104</v>
@@ -4438,7 +4417,7 @@
         <v>14</v>
       </c>
       <c r="B278" s="7" t="n">
-        <v>45664</v>
+        <v>45685</v>
       </c>
       <c r="C278" s="8" t="n">
         <v>104</v>
@@ -4452,7 +4431,7 @@
         <v>14</v>
       </c>
       <c r="B279" s="7" t="n">
-        <v>45665</v>
+        <v>45686</v>
       </c>
       <c r="C279" s="8" t="n">
         <v>104</v>
@@ -4466,7 +4445,7 @@
         <v>14</v>
       </c>
       <c r="B280" s="7" t="n">
-        <v>45666</v>
+        <v>45687</v>
       </c>
       <c r="C280" s="8" t="n">
         <v>104</v>
@@ -4480,7 +4459,7 @@
         <v>14</v>
       </c>
       <c r="B281" s="7" t="n">
-        <v>45667</v>
+        <v>45688</v>
       </c>
       <c r="C281" s="8" t="n">
         <v>104</v>
@@ -4494,10 +4473,10 @@
         <v>14</v>
       </c>
       <c r="B282" s="7" t="n">
-        <v>45668</v>
+        <v>45689</v>
       </c>
       <c r="C282" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
@@ -4508,10 +4487,10 @@
         <v>14</v>
       </c>
       <c r="B283" s="7" t="n">
-        <v>45669</v>
+        <v>45690</v>
       </c>
       <c r="C283" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
@@ -4522,10 +4501,10 @@
         <v>14</v>
       </c>
       <c r="B284" s="7" t="n">
-        <v>45670</v>
+        <v>45691</v>
       </c>
       <c r="C284" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
@@ -4536,10 +4515,10 @@
         <v>14</v>
       </c>
       <c r="B285" s="7" t="n">
-        <v>45671</v>
+        <v>45692</v>
       </c>
       <c r="C285" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D285" s="9"/>
       <c r="E285" s="9"/>
@@ -4550,10 +4529,10 @@
         <v>14</v>
       </c>
       <c r="B286" s="7" t="n">
-        <v>45672</v>
+        <v>45693</v>
       </c>
       <c r="C286" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
@@ -4564,10 +4543,10 @@
         <v>14</v>
       </c>
       <c r="B287" s="7" t="n">
-        <v>45673</v>
+        <v>45694</v>
       </c>
       <c r="C287" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D287" s="9"/>
       <c r="E287" s="9"/>
@@ -4578,10 +4557,10 @@
         <v>14</v>
       </c>
       <c r="B288" s="7" t="n">
-        <v>45674</v>
+        <v>45695</v>
       </c>
       <c r="C288" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
@@ -4592,10 +4571,10 @@
         <v>14</v>
       </c>
       <c r="B289" s="7" t="n">
-        <v>45675</v>
+        <v>45696</v>
       </c>
       <c r="C289" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D289" s="9"/>
       <c r="E289" s="9"/>
@@ -4606,10 +4585,10 @@
         <v>14</v>
       </c>
       <c r="B290" s="7" t="n">
-        <v>45676</v>
+        <v>45697</v>
       </c>
       <c r="C290" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
@@ -4620,10 +4599,10 @@
         <v>14</v>
       </c>
       <c r="B291" s="7" t="n">
-        <v>45677</v>
+        <v>45698</v>
       </c>
       <c r="C291" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
@@ -4634,10 +4613,10 @@
         <v>14</v>
       </c>
       <c r="B292" s="7" t="n">
-        <v>45678</v>
+        <v>45699</v>
       </c>
       <c r="C292" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
@@ -4648,10 +4627,10 @@
         <v>14</v>
       </c>
       <c r="B293" s="7" t="n">
-        <v>45679</v>
+        <v>45700</v>
       </c>
       <c r="C293" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
@@ -4662,10 +4641,10 @@
         <v>14</v>
       </c>
       <c r="B294" s="7" t="n">
-        <v>45680</v>
+        <v>45701</v>
       </c>
       <c r="C294" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
@@ -4676,10 +4655,10 @@
         <v>14</v>
       </c>
       <c r="B295" s="7" t="n">
-        <v>45681</v>
+        <v>45702</v>
       </c>
       <c r="C295" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
@@ -4690,10 +4669,10 @@
         <v>14</v>
       </c>
       <c r="B296" s="7" t="n">
-        <v>45682</v>
+        <v>45703</v>
       </c>
       <c r="C296" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
@@ -4704,10 +4683,10 @@
         <v>14</v>
       </c>
       <c r="B297" s="7" t="n">
-        <v>45683</v>
+        <v>45704</v>
       </c>
       <c r="C297" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D297" s="9"/>
       <c r="E297" s="9"/>
@@ -4718,10 +4697,10 @@
         <v>14</v>
       </c>
       <c r="B298" s="7" t="n">
-        <v>45684</v>
+        <v>45705</v>
       </c>
       <c r="C298" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
@@ -4732,10 +4711,10 @@
         <v>14</v>
       </c>
       <c r="B299" s="7" t="n">
-        <v>45685</v>
+        <v>45706</v>
       </c>
       <c r="C299" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D299" s="9"/>
       <c r="E299" s="9"/>
@@ -4746,10 +4725,10 @@
         <v>14</v>
       </c>
       <c r="B300" s="7" t="n">
-        <v>45686</v>
+        <v>45707</v>
       </c>
       <c r="C300" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
@@ -4760,10 +4739,10 @@
         <v>14</v>
       </c>
       <c r="B301" s="7" t="n">
-        <v>45687</v>
+        <v>45708</v>
       </c>
       <c r="C301" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
@@ -4774,10 +4753,10 @@
         <v>14</v>
       </c>
       <c r="B302" s="7" t="n">
-        <v>45688</v>
+        <v>45709</v>
       </c>
       <c r="C302" s="8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
@@ -4788,7 +4767,7 @@
         <v>14</v>
       </c>
       <c r="B303" s="7" t="n">
-        <v>45689</v>
+        <v>45710</v>
       </c>
       <c r="C303" s="8" t="n">
         <v>0</v>
@@ -4802,7 +4781,7 @@
         <v>14</v>
       </c>
       <c r="B304" s="7" t="n">
-        <v>45690</v>
+        <v>45711</v>
       </c>
       <c r="C304" s="8" t="n">
         <v>0</v>
@@ -4816,7 +4795,7 @@
         <v>14</v>
       </c>
       <c r="B305" s="7" t="n">
-        <v>45691</v>
+        <v>45712</v>
       </c>
       <c r="C305" s="8" t="n">
         <v>0</v>
@@ -4830,7 +4809,7 @@
         <v>14</v>
       </c>
       <c r="B306" s="7" t="n">
-        <v>45692</v>
+        <v>45713</v>
       </c>
       <c r="C306" s="8" t="n">
         <v>0</v>
@@ -4844,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="B307" s="7" t="n">
-        <v>45693</v>
+        <v>45714</v>
       </c>
       <c r="C307" s="8" t="n">
         <v>0</v>
@@ -4858,7 +4837,7 @@
         <v>14</v>
       </c>
       <c r="B308" s="7" t="n">
-        <v>45694</v>
+        <v>45715</v>
       </c>
       <c r="C308" s="8" t="n">
         <v>0</v>
@@ -4872,7 +4851,7 @@
         <v>14</v>
       </c>
       <c r="B309" s="7" t="n">
-        <v>45695</v>
+        <v>45716</v>
       </c>
       <c r="C309" s="8" t="n">
         <v>0</v>
@@ -4886,7 +4865,7 @@
         <v>14</v>
       </c>
       <c r="B310" s="7" t="n">
-        <v>45696</v>
+        <v>45717</v>
       </c>
       <c r="C310" s="8" t="n">
         <v>0</v>
@@ -4900,7 +4879,7 @@
         <v>14</v>
       </c>
       <c r="B311" s="7" t="n">
-        <v>45697</v>
+        <v>45718</v>
       </c>
       <c r="C311" s="8" t="n">
         <v>0</v>
@@ -4914,7 +4893,7 @@
         <v>14</v>
       </c>
       <c r="B312" s="7" t="n">
-        <v>45698</v>
+        <v>45719</v>
       </c>
       <c r="C312" s="8" t="n">
         <v>0</v>
@@ -4928,7 +4907,7 @@
         <v>14</v>
       </c>
       <c r="B313" s="7" t="n">
-        <v>45699</v>
+        <v>45720</v>
       </c>
       <c r="C313" s="8" t="n">
         <v>0</v>
@@ -4942,7 +4921,7 @@
         <v>14</v>
       </c>
       <c r="B314" s="7" t="n">
-        <v>45700</v>
+        <v>45721</v>
       </c>
       <c r="C314" s="8" t="n">
         <v>0</v>
@@ -4956,7 +4935,7 @@
         <v>14</v>
       </c>
       <c r="B315" s="7" t="n">
-        <v>45701</v>
+        <v>45722</v>
       </c>
       <c r="C315" s="8" t="n">
         <v>0</v>
@@ -4970,7 +4949,7 @@
         <v>14</v>
       </c>
       <c r="B316" s="7" t="n">
-        <v>45702</v>
+        <v>45723</v>
       </c>
       <c r="C316" s="8" t="n">
         <v>0</v>
@@ -4984,7 +4963,7 @@
         <v>14</v>
       </c>
       <c r="B317" s="7" t="n">
-        <v>45703</v>
+        <v>45724</v>
       </c>
       <c r="C317" s="8" t="n">
         <v>0</v>
@@ -4998,7 +4977,7 @@
         <v>14</v>
       </c>
       <c r="B318" s="7" t="n">
-        <v>45704</v>
+        <v>45725</v>
       </c>
       <c r="C318" s="8" t="n">
         <v>0</v>
@@ -5012,7 +4991,7 @@
         <v>14</v>
       </c>
       <c r="B319" s="7" t="n">
-        <v>45705</v>
+        <v>45726</v>
       </c>
       <c r="C319" s="8" t="n">
         <v>0</v>
@@ -5026,7 +5005,7 @@
         <v>14</v>
       </c>
       <c r="B320" s="7" t="n">
-        <v>45706</v>
+        <v>45727</v>
       </c>
       <c r="C320" s="8" t="n">
         <v>0</v>
@@ -5040,7 +5019,7 @@
         <v>14</v>
       </c>
       <c r="B321" s="7" t="n">
-        <v>45707</v>
+        <v>45728</v>
       </c>
       <c r="C321" s="8" t="n">
         <v>0</v>
@@ -5054,7 +5033,7 @@
         <v>14</v>
       </c>
       <c r="B322" s="7" t="n">
-        <v>45708</v>
+        <v>45729</v>
       </c>
       <c r="C322" s="8" t="n">
         <v>0</v>
@@ -5068,7 +5047,7 @@
         <v>14</v>
       </c>
       <c r="B323" s="7" t="n">
-        <v>45709</v>
+        <v>45730</v>
       </c>
       <c r="C323" s="8" t="n">
         <v>0</v>
@@ -5082,7 +5061,7 @@
         <v>14</v>
       </c>
       <c r="B324" s="7" t="n">
-        <v>45710</v>
+        <v>45731</v>
       </c>
       <c r="C324" s="8" t="n">
         <v>0</v>
@@ -5096,7 +5075,7 @@
         <v>14</v>
       </c>
       <c r="B325" s="7" t="n">
-        <v>45711</v>
+        <v>45732</v>
       </c>
       <c r="C325" s="8" t="n">
         <v>0</v>
@@ -5110,7 +5089,7 @@
         <v>14</v>
       </c>
       <c r="B326" s="7" t="n">
-        <v>45712</v>
+        <v>45733</v>
       </c>
       <c r="C326" s="8" t="n">
         <v>0</v>
@@ -5124,7 +5103,7 @@
         <v>14</v>
       </c>
       <c r="B327" s="7" t="n">
-        <v>45713</v>
+        <v>45734</v>
       </c>
       <c r="C327" s="8" t="n">
         <v>0</v>
@@ -5138,7 +5117,7 @@
         <v>14</v>
       </c>
       <c r="B328" s="7" t="n">
-        <v>45714</v>
+        <v>45735</v>
       </c>
       <c r="C328" s="8" t="n">
         <v>0</v>
@@ -5152,7 +5131,7 @@
         <v>14</v>
       </c>
       <c r="B329" s="7" t="n">
-        <v>45715</v>
+        <v>45736</v>
       </c>
       <c r="C329" s="8" t="n">
         <v>0</v>
@@ -5166,7 +5145,7 @@
         <v>14</v>
       </c>
       <c r="B330" s="7" t="n">
-        <v>45716</v>
+        <v>45737</v>
       </c>
       <c r="C330" s="8" t="n">
         <v>0</v>
@@ -5180,7 +5159,7 @@
         <v>14</v>
       </c>
       <c r="B331" s="7" t="n">
-        <v>45717</v>
+        <v>45738</v>
       </c>
       <c r="C331" s="8" t="n">
         <v>0</v>
@@ -5194,7 +5173,7 @@
         <v>14</v>
       </c>
       <c r="B332" s="7" t="n">
-        <v>45718</v>
+        <v>45739</v>
       </c>
       <c r="C332" s="8" t="n">
         <v>0</v>
@@ -5208,7 +5187,7 @@
         <v>14</v>
       </c>
       <c r="B333" s="7" t="n">
-        <v>45719</v>
+        <v>45740</v>
       </c>
       <c r="C333" s="8" t="n">
         <v>0</v>
@@ -5222,7 +5201,7 @@
         <v>14</v>
       </c>
       <c r="B334" s="7" t="n">
-        <v>45720</v>
+        <v>45741</v>
       </c>
       <c r="C334" s="8" t="n">
         <v>0</v>
@@ -5236,7 +5215,7 @@
         <v>14</v>
       </c>
       <c r="B335" s="7" t="n">
-        <v>45721</v>
+        <v>45742</v>
       </c>
       <c r="C335" s="8" t="n">
         <v>0</v>
@@ -5250,7 +5229,7 @@
         <v>14</v>
       </c>
       <c r="B336" s="7" t="n">
-        <v>45722</v>
+        <v>45743</v>
       </c>
       <c r="C336" s="8" t="n">
         <v>0</v>
@@ -5264,7 +5243,7 @@
         <v>14</v>
       </c>
       <c r="B337" s="7" t="n">
-        <v>45723</v>
+        <v>45744</v>
       </c>
       <c r="C337" s="8" t="n">
         <v>0</v>
@@ -5278,7 +5257,7 @@
         <v>14</v>
       </c>
       <c r="B338" s="7" t="n">
-        <v>45724</v>
+        <v>45745</v>
       </c>
       <c r="C338" s="8" t="n">
         <v>0</v>
@@ -5292,7 +5271,7 @@
         <v>14</v>
       </c>
       <c r="B339" s="7" t="n">
-        <v>45725</v>
+        <v>45746</v>
       </c>
       <c r="C339" s="8" t="n">
         <v>0</v>
@@ -5306,7 +5285,7 @@
         <v>14</v>
       </c>
       <c r="B340" s="7" t="n">
-        <v>45726</v>
+        <v>45747</v>
       </c>
       <c r="C340" s="8" t="n">
         <v>0</v>
@@ -5320,7 +5299,7 @@
         <v>14</v>
       </c>
       <c r="B341" s="7" t="n">
-        <v>45727</v>
+        <v>45748</v>
       </c>
       <c r="C341" s="8" t="n">
         <v>0</v>
@@ -5334,7 +5313,7 @@
         <v>14</v>
       </c>
       <c r="B342" s="7" t="n">
-        <v>45728</v>
+        <v>45749</v>
       </c>
       <c r="C342" s="8" t="n">
         <v>0</v>
@@ -5348,7 +5327,7 @@
         <v>14</v>
       </c>
       <c r="B343" s="7" t="n">
-        <v>45729</v>
+        <v>45750</v>
       </c>
       <c r="C343" s="8" t="n">
         <v>0</v>
@@ -5362,7 +5341,7 @@
         <v>14</v>
       </c>
       <c r="B344" s="7" t="n">
-        <v>45730</v>
+        <v>45751</v>
       </c>
       <c r="C344" s="8" t="n">
         <v>0</v>
@@ -5376,7 +5355,7 @@
         <v>14</v>
       </c>
       <c r="B345" s="7" t="n">
-        <v>45731</v>
+        <v>45752</v>
       </c>
       <c r="C345" s="8" t="n">
         <v>0</v>
@@ -5390,7 +5369,7 @@
         <v>14</v>
       </c>
       <c r="B346" s="7" t="n">
-        <v>45732</v>
+        <v>45753</v>
       </c>
       <c r="C346" s="8" t="n">
         <v>0</v>
@@ -5404,7 +5383,7 @@
         <v>14</v>
       </c>
       <c r="B347" s="7" t="n">
-        <v>45733</v>
+        <v>45754</v>
       </c>
       <c r="C347" s="8" t="n">
         <v>0</v>
@@ -5418,7 +5397,7 @@
         <v>14</v>
       </c>
       <c r="B348" s="7" t="n">
-        <v>45734</v>
+        <v>45755</v>
       </c>
       <c r="C348" s="8" t="n">
         <v>0</v>
@@ -5432,7 +5411,7 @@
         <v>14</v>
       </c>
       <c r="B349" s="7" t="n">
-        <v>45735</v>
+        <v>45756</v>
       </c>
       <c r="C349" s="8" t="n">
         <v>0</v>
@@ -5446,7 +5425,7 @@
         <v>14</v>
       </c>
       <c r="B350" s="7" t="n">
-        <v>45736</v>
+        <v>45757</v>
       </c>
       <c r="C350" s="8" t="n">
         <v>0</v>
@@ -5460,7 +5439,7 @@
         <v>14</v>
       </c>
       <c r="B351" s="7" t="n">
-        <v>45737</v>
+        <v>45758</v>
       </c>
       <c r="C351" s="8" t="n">
         <v>0</v>
@@ -5474,7 +5453,7 @@
         <v>14</v>
       </c>
       <c r="B352" s="7" t="n">
-        <v>45738</v>
+        <v>45759</v>
       </c>
       <c r="C352" s="8" t="n">
         <v>0</v>
@@ -5488,7 +5467,7 @@
         <v>14</v>
       </c>
       <c r="B353" s="7" t="n">
-        <v>45739</v>
+        <v>45760</v>
       </c>
       <c r="C353" s="8" t="n">
         <v>0</v>
@@ -5502,7 +5481,7 @@
         <v>14</v>
       </c>
       <c r="B354" s="7" t="n">
-        <v>45740</v>
+        <v>45761</v>
       </c>
       <c r="C354" s="8" t="n">
         <v>0</v>
@@ -5516,7 +5495,7 @@
         <v>14</v>
       </c>
       <c r="B355" s="7" t="n">
-        <v>45741</v>
+        <v>45762</v>
       </c>
       <c r="C355" s="8" t="n">
         <v>0</v>
@@ -5530,7 +5509,7 @@
         <v>14</v>
       </c>
       <c r="B356" s="7" t="n">
-        <v>45742</v>
+        <v>45763</v>
       </c>
       <c r="C356" s="8" t="n">
         <v>0</v>
@@ -5544,7 +5523,7 @@
         <v>14</v>
       </c>
       <c r="B357" s="7" t="n">
-        <v>45743</v>
+        <v>45764</v>
       </c>
       <c r="C357" s="8" t="n">
         <v>0</v>
@@ -5558,7 +5537,7 @@
         <v>14</v>
       </c>
       <c r="B358" s="7" t="n">
-        <v>45744</v>
+        <v>45765</v>
       </c>
       <c r="C358" s="8" t="n">
         <v>0</v>
@@ -5572,7 +5551,7 @@
         <v>14</v>
       </c>
       <c r="B359" s="7" t="n">
-        <v>45745</v>
+        <v>45766</v>
       </c>
       <c r="C359" s="8" t="n">
         <v>0</v>
@@ -5586,7 +5565,7 @@
         <v>14</v>
       </c>
       <c r="B360" s="7" t="n">
-        <v>45746</v>
+        <v>45767</v>
       </c>
       <c r="C360" s="8" t="n">
         <v>0</v>
@@ -5600,7 +5579,7 @@
         <v>14</v>
       </c>
       <c r="B361" s="7" t="n">
-        <v>45747</v>
+        <v>45768</v>
       </c>
       <c r="C361" s="8" t="n">
         <v>0</v>
@@ -5614,7 +5593,7 @@
         <v>14</v>
       </c>
       <c r="B362" s="7" t="n">
-        <v>45748</v>
+        <v>45769</v>
       </c>
       <c r="C362" s="8" t="n">
         <v>0</v>
@@ -5628,7 +5607,7 @@
         <v>14</v>
       </c>
       <c r="B363" s="7" t="n">
-        <v>45749</v>
+        <v>45770</v>
       </c>
       <c r="C363" s="8" t="n">
         <v>0</v>
@@ -5642,7 +5621,7 @@
         <v>14</v>
       </c>
       <c r="B364" s="7" t="n">
-        <v>45750</v>
+        <v>45771</v>
       </c>
       <c r="C364" s="8" t="n">
         <v>0</v>
@@ -5656,10 +5635,10 @@
         <v>14</v>
       </c>
       <c r="B365" s="7" t="n">
-        <v>45751</v>
+        <v>45772</v>
       </c>
       <c r="C365" s="8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D365" s="9"/>
       <c r="E365" s="9"/>
@@ -5670,10 +5649,10 @@
         <v>14</v>
       </c>
       <c r="B366" s="7" t="n">
-        <v>45752</v>
+        <v>45773</v>
       </c>
       <c r="C366" s="8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D366" s="9"/>
       <c r="E366" s="9"/>
@@ -5684,10 +5663,10 @@
         <v>14</v>
       </c>
       <c r="B367" s="7" t="n">
-        <v>45753</v>
+        <v>45774</v>
       </c>
       <c r="C367" s="8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D367" s="9"/>
       <c r="E367" s="9"/>
@@ -5698,10 +5677,10 @@
         <v>14</v>
       </c>
       <c r="B368" s="7" t="n">
-        <v>45754</v>
+        <v>45775</v>
       </c>
       <c r="C368" s="8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D368" s="9"/>
       <c r="E368" s="9"/>
@@ -5712,10 +5691,10 @@
         <v>14</v>
       </c>
       <c r="B369" s="7" t="n">
-        <v>45755</v>
+        <v>45776</v>
       </c>
       <c r="C369" s="8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D369" s="9"/>
       <c r="E369" s="9"/>
@@ -5726,10 +5705,10 @@
         <v>14</v>
       </c>
       <c r="B370" s="7" t="n">
-        <v>45756</v>
+        <v>45777</v>
       </c>
       <c r="C370" s="8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D370" s="9"/>
       <c r="E370" s="9"/>
@@ -5740,305 +5719,179 @@
         <v>14</v>
       </c>
       <c r="B371" s="7" t="n">
-        <v>45757</v>
+        <v>45778</v>
       </c>
       <c r="C371" s="8" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="D371" s="9"/>
       <c r="E371" s="9"/>
       <c r="F371" s="9"/>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B372" s="7" t="n">
-        <v>45758</v>
-      </c>
-      <c r="C372" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A372" s="6"/>
+      <c r="B372" s="7"/>
+      <c r="C372" s="9"/>
       <c r="D372" s="9"/>
       <c r="E372" s="9"/>
       <c r="F372" s="9"/>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B373" s="7" t="n">
-        <v>45759</v>
-      </c>
-      <c r="C373" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A373" s="6"/>
+      <c r="B373" s="7"/>
+      <c r="C373" s="9"/>
       <c r="D373" s="9"/>
       <c r="E373" s="9"/>
       <c r="F373" s="9"/>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B374" s="7" t="n">
-        <v>45760</v>
-      </c>
-      <c r="C374" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A374" s="6"/>
+      <c r="B374" s="7"/>
+      <c r="C374" s="9"/>
       <c r="D374" s="9"/>
       <c r="E374" s="9"/>
       <c r="F374" s="9"/>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B375" s="7" t="n">
-        <v>45761</v>
-      </c>
-      <c r="C375" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A375" s="6"/>
+      <c r="B375" s="7"/>
+      <c r="C375" s="9"/>
       <c r="D375" s="9"/>
       <c r="E375" s="9"/>
       <c r="F375" s="9"/>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B376" s="7" t="n">
-        <v>45762</v>
-      </c>
-      <c r="C376" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A376" s="6"/>
+      <c r="B376" s="7"/>
+      <c r="C376" s="9"/>
       <c r="D376" s="9"/>
       <c r="E376" s="9"/>
       <c r="F376" s="9"/>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B377" s="7" t="n">
-        <v>45763</v>
-      </c>
-      <c r="C377" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A377" s="6"/>
+      <c r="B377" s="7"/>
+      <c r="C377" s="9"/>
       <c r="D377" s="9"/>
       <c r="E377" s="9"/>
       <c r="F377" s="9"/>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B378" s="7" t="n">
-        <v>45764</v>
-      </c>
-      <c r="C378" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A378" s="6"/>
+      <c r="B378" s="7"/>
+      <c r="C378" s="9"/>
       <c r="D378" s="9"/>
       <c r="E378" s="9"/>
       <c r="F378" s="9"/>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B379" s="7" t="n">
-        <v>45765</v>
-      </c>
-      <c r="C379" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A379" s="6"/>
+      <c r="B379" s="7"/>
+      <c r="C379" s="9"/>
       <c r="D379" s="9"/>
       <c r="E379" s="9"/>
       <c r="F379" s="9"/>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B380" s="7" t="n">
-        <v>45766</v>
-      </c>
-      <c r="C380" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A380" s="6"/>
+      <c r="B380" s="7"/>
+      <c r="C380" s="9"/>
       <c r="D380" s="9"/>
       <c r="E380" s="9"/>
       <c r="F380" s="9"/>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B381" s="7" t="n">
-        <v>45767</v>
-      </c>
-      <c r="C381" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A381" s="6"/>
+      <c r="B381" s="7"/>
+      <c r="C381" s="9"/>
       <c r="D381" s="9"/>
       <c r="E381" s="9"/>
       <c r="F381" s="9"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B382" s="7" t="n">
-        <v>45768</v>
-      </c>
-      <c r="C382" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A382" s="6"/>
+      <c r="B382" s="7"/>
+      <c r="C382" s="9"/>
       <c r="D382" s="9"/>
       <c r="E382" s="9"/>
       <c r="F382" s="9"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B383" s="7" t="n">
-        <v>45769</v>
-      </c>
-      <c r="C383" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A383" s="6"/>
+      <c r="B383" s="7"/>
+      <c r="C383" s="9"/>
       <c r="D383" s="9"/>
       <c r="E383" s="9"/>
       <c r="F383" s="9"/>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B384" s="7" t="n">
-        <v>45770</v>
-      </c>
-      <c r="C384" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A384" s="6"/>
+      <c r="B384" s="7"/>
+      <c r="C384" s="9"/>
       <c r="D384" s="9"/>
       <c r="E384" s="9"/>
       <c r="F384" s="9"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B385" s="7" t="n">
-        <v>45771</v>
-      </c>
-      <c r="C385" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="A385" s="6"/>
+      <c r="B385" s="7"/>
+      <c r="C385" s="9"/>
       <c r="D385" s="9"/>
       <c r="E385" s="9"/>
       <c r="F385" s="9"/>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B386" s="7" t="n">
-        <v>45772</v>
-      </c>
-      <c r="C386" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A386" s="6"/>
+      <c r="B386" s="7"/>
+      <c r="C386" s="9"/>
       <c r="D386" s="9"/>
       <c r="E386" s="9"/>
       <c r="F386" s="9"/>
     </row>
     <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B387" s="7" t="n">
-        <v>45773</v>
-      </c>
-      <c r="C387" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A387" s="6"/>
+      <c r="B387" s="7"/>
+      <c r="C387" s="9"/>
       <c r="D387" s="9"/>
       <c r="E387" s="9"/>
       <c r="F387" s="9"/>
     </row>
     <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B388" s="7" t="n">
-        <v>45774</v>
-      </c>
-      <c r="C388" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A388" s="6"/>
+      <c r="B388" s="7"/>
+      <c r="C388" s="9"/>
       <c r="D388" s="9"/>
       <c r="E388" s="9"/>
       <c r="F388" s="9"/>
     </row>
     <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B389" s="7" t="n">
-        <v>45775</v>
-      </c>
-      <c r="C389" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A389" s="6"/>
+      <c r="B389" s="7"/>
+      <c r="C389" s="9"/>
       <c r="D389" s="9"/>
       <c r="E389" s="9"/>
       <c r="F389" s="9"/>
     </row>
     <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B390" s="7" t="n">
-        <v>45776</v>
-      </c>
-      <c r="C390" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A390" s="6"/>
+      <c r="B390" s="7"/>
+      <c r="C390" s="9"/>
       <c r="D390" s="9"/>
       <c r="E390" s="9"/>
       <c r="F390" s="9"/>
     </row>
     <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B391" s="7" t="n">
-        <v>45777</v>
-      </c>
-      <c r="C391" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A391" s="6"/>
+      <c r="B391" s="7"/>
+      <c r="C391" s="9"/>
       <c r="D391" s="9"/>
       <c r="E391" s="9"/>
       <c r="F391" s="9"/>
     </row>
     <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B392" s="7" t="n">
-        <v>45778</v>
-      </c>
-      <c r="C392" s="8" t="n">
-        <v>455</v>
-      </c>
+      <c r="A392" s="6"/>
+      <c r="B392" s="7"/>
+      <c r="C392" s="9"/>
       <c r="D392" s="9"/>
       <c r="E392" s="9"/>
       <c r="F392" s="9"/>
@@ -11691,174 +11544,27 @@
       <c r="E1098" s="9"/>
       <c r="F1098" s="9"/>
     </row>
-    <row r="1099" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1099" s="6"/>
-      <c r="B1099" s="7"/>
-      <c r="C1099" s="9"/>
-      <c r="D1099" s="9"/>
-      <c r="E1099" s="9"/>
-      <c r="F1099" s="9"/>
-    </row>
-    <row r="1100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1100" s="6"/>
-      <c r="B1100" s="7"/>
-      <c r="C1100" s="9"/>
-      <c r="D1100" s="9"/>
-      <c r="E1100" s="9"/>
-      <c r="F1100" s="9"/>
-    </row>
-    <row r="1101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1101" s="6"/>
-      <c r="B1101" s="7"/>
-      <c r="C1101" s="9"/>
-      <c r="D1101" s="9"/>
-      <c r="E1101" s="9"/>
-      <c r="F1101" s="9"/>
-    </row>
-    <row r="1102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1102" s="6"/>
-      <c r="B1102" s="7"/>
-      <c r="C1102" s="9"/>
-      <c r="D1102" s="9"/>
-      <c r="E1102" s="9"/>
-      <c r="F1102" s="9"/>
-    </row>
-    <row r="1103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1103" s="6"/>
-      <c r="B1103" s="7"/>
-      <c r="C1103" s="9"/>
-      <c r="D1103" s="9"/>
-      <c r="E1103" s="9"/>
-      <c r="F1103" s="9"/>
-    </row>
-    <row r="1104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1104" s="6"/>
-      <c r="B1104" s="7"/>
-      <c r="C1104" s="9"/>
-      <c r="D1104" s="9"/>
-      <c r="E1104" s="9"/>
-      <c r="F1104" s="9"/>
-    </row>
-    <row r="1105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1105" s="6"/>
-      <c r="B1105" s="7"/>
-      <c r="C1105" s="9"/>
-      <c r="D1105" s="9"/>
-      <c r="E1105" s="9"/>
-      <c r="F1105" s="9"/>
-    </row>
-    <row r="1106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1106" s="6"/>
-      <c r="B1106" s="7"/>
-      <c r="C1106" s="9"/>
-      <c r="D1106" s="9"/>
-      <c r="E1106" s="9"/>
-      <c r="F1106" s="9"/>
-    </row>
-    <row r="1107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1107" s="6"/>
-      <c r="B1107" s="7"/>
-      <c r="C1107" s="9"/>
-      <c r="D1107" s="9"/>
-      <c r="E1107" s="9"/>
-      <c r="F1107" s="9"/>
-    </row>
-    <row r="1108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1108" s="6"/>
-      <c r="B1108" s="7"/>
-      <c r="C1108" s="9"/>
-      <c r="D1108" s="9"/>
-      <c r="E1108" s="9"/>
-      <c r="F1108" s="9"/>
-    </row>
-    <row r="1109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1109" s="6"/>
-      <c r="B1109" s="7"/>
-      <c r="C1109" s="9"/>
-      <c r="D1109" s="9"/>
-      <c r="E1109" s="9"/>
-      <c r="F1109" s="9"/>
-    </row>
-    <row r="1110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1110" s="6"/>
-      <c r="B1110" s="7"/>
-      <c r="C1110" s="9"/>
-      <c r="D1110" s="9"/>
-      <c r="E1110" s="9"/>
-      <c r="F1110" s="9"/>
-    </row>
-    <row r="1111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1111" s="6"/>
-      <c r="B1111" s="7"/>
-      <c r="C1111" s="9"/>
-      <c r="D1111" s="9"/>
-      <c r="E1111" s="9"/>
-      <c r="F1111" s="9"/>
-    </row>
-    <row r="1112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1112" s="6"/>
-      <c r="B1112" s="7"/>
-      <c r="C1112" s="9"/>
-      <c r="D1112" s="9"/>
-      <c r="E1112" s="9"/>
-      <c r="F1112" s="9"/>
-    </row>
-    <row r="1113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1113" s="6"/>
-      <c r="B1113" s="7"/>
-      <c r="C1113" s="9"/>
-      <c r="D1113" s="9"/>
-      <c r="E1113" s="9"/>
-      <c r="F1113" s="9"/>
-    </row>
-    <row r="1114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1114" s="6"/>
-      <c r="B1114" s="7"/>
-      <c r="C1114" s="9"/>
-      <c r="D1114" s="9"/>
-      <c r="E1114" s="9"/>
-      <c r="F1114" s="9"/>
-    </row>
-    <row r="1115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1115" s="6"/>
-      <c r="B1115" s="7"/>
-      <c r="C1115" s="9"/>
-      <c r="D1115" s="9"/>
-      <c r="E1115" s="9"/>
-      <c r="F1115" s="9"/>
-    </row>
-    <row r="1116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1116" s="6"/>
-      <c r="B1116" s="7"/>
-      <c r="C1116" s="9"/>
-      <c r="D1116" s="9"/>
-      <c r="E1116" s="9"/>
-      <c r="F1116" s="9"/>
-    </row>
-    <row r="1117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1117" s="6"/>
-      <c r="B1117" s="7"/>
-      <c r="C1117" s="9"/>
-      <c r="D1117" s="9"/>
-      <c r="E1117" s="9"/>
-      <c r="F1117" s="9"/>
-    </row>
-    <row r="1118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1118" s="6"/>
-      <c r="B1118" s="7"/>
-      <c r="C1118" s="9"/>
-      <c r="D1118" s="9"/>
-      <c r="E1118" s="9"/>
-      <c r="F1118" s="9"/>
-    </row>
-    <row r="1119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1119" s="6"/>
-      <c r="B1119" s="7"/>
-      <c r="C1119" s="9"/>
-      <c r="D1119" s="9"/>
-      <c r="E1119" s="9"/>
-      <c r="F1119" s="9"/>
-    </row>
+    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12223,7 +11929,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F119"/>
+  <autoFilter ref="A1:F98"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
